--- a/apps/load_data/2020/02/PLMOVMAE.xlsx
+++ b/apps/load_data/2020/02/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2020\HHY0220\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020-m\HHY0220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A77DAEE0-5D1A-44D1-ACA8-999887EE155C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EA7D4C-1ADB-42D2-8FC0-9C82FAA19597}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10320" windowHeight="11235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10320" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$263</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$263</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11600" uniqueCount="3255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11579" uniqueCount="3252">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7102,9 +7103,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8398,9 +8396,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8729,9 +8724,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -9793,7 +9785,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -10633,10 +10625,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD182" sqref="AD182"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -43746,12 +43740,7 @@
       <c r="AB173" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2359</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>106</v>
       </c>
@@ -43804,7 +43793,7 @@
         <v>20</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="BE173" s="1" t="s">
         <v>113</v>
@@ -43816,10 +43805,10 @@
         <v>115</v>
       </c>
       <c r="BH173" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="BI173" s="1" t="s">
         <v>2361</v>
-      </c>
-      <c r="BI173" s="1" t="s">
-        <v>2362</v>
       </c>
       <c r="BM173" s="1" t="s">
         <v>118</v>
@@ -43834,13 +43823,13 @@
         <v>163</v>
       </c>
       <c r="BR173" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="BS173" s="3">
         <v>36225</v>
       </c>
       <c r="BT173" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="BU173" s="1" t="s">
         <v>122</v>
@@ -43861,19 +43850,19 @@
         <v>101</v>
       </c>
       <c r="CC173" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="CD173" s="1" t="s">
         <v>2365</v>
       </c>
-      <c r="CD173" s="1" t="s">
+      <c r="CE173" s="1" t="s">
         <v>2366</v>
       </c>
-      <c r="CE173" s="1" t="s">
+      <c r="CG173" s="1" t="s">
         <v>2367</v>
       </c>
-      <c r="CG173" s="1" t="s">
+      <c r="CH173" s="1" t="s">
         <v>2368</v>
-      </c>
-      <c r="CH173" s="1" t="s">
-        <v>2369</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>130</v>
@@ -43911,13 +43900,13 @@
         <v>96</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2370</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2371</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2372</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>100</v>
@@ -43949,12 +43938,7 @@
       <c r="AB174" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2359</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>106</v>
       </c>
@@ -44001,7 +43985,7 @@
         <v>101</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="BB174" s="1">
         <v>2</v>
@@ -44010,7 +43994,7 @@
         <v>20</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="BE174" s="1" t="s">
         <v>113</v>
@@ -44022,10 +44006,10 @@
         <v>115</v>
       </c>
       <c r="BH174" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="BI174" s="1" t="s">
         <v>2375</v>
-      </c>
-      <c r="BI174" s="1" t="s">
-        <v>2376</v>
       </c>
       <c r="BM174" s="1" t="s">
         <v>118</v>
@@ -44037,13 +44021,13 @@
         <v>102</v>
       </c>
       <c r="BR174" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="BS174" s="3">
         <v>36949</v>
       </c>
       <c r="BT174" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BU174" s="1" t="s">
         <v>122</v>
@@ -44067,19 +44051,19 @@
         <v>101</v>
       </c>
       <c r="CC174" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="CD174" s="1" t="s">
         <v>2064</v>
       </c>
       <c r="CE174" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="CG174" s="1" t="s">
         <v>2380</v>
       </c>
-      <c r="CG174" s="1" t="s">
+      <c r="CH174" s="1" t="s">
         <v>2381</v>
-      </c>
-      <c r="CH174" s="1" t="s">
-        <v>2382</v>
       </c>
       <c r="CI174" s="1" t="s">
         <v>130</v>
@@ -44117,13 +44101,13 @@
         <v>96</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2383</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2384</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2385</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>100</v>
@@ -44155,12 +44139,7 @@
       <c r="AB175" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2359</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>106</v>
       </c>
@@ -44207,7 +44186,7 @@
         <v>101</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="BB175" s="1">
         <v>2</v>
@@ -44216,7 +44195,7 @@
         <v>20</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="BE175" s="1" t="s">
         <v>113</v>
@@ -44228,10 +44207,10 @@
         <v>115</v>
       </c>
       <c r="BH175" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="BI175" s="1" t="s">
         <v>2388</v>
-      </c>
-      <c r="BI175" s="1" t="s">
-        <v>2389</v>
       </c>
       <c r="BM175" s="1" t="s">
         <v>118</v>
@@ -44246,13 +44225,13 @@
         <v>163</v>
       </c>
       <c r="BR175" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="BS175" s="3">
         <v>36825</v>
       </c>
       <c r="BT175" s="1" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="BU175" s="1" t="s">
         <v>122</v>
@@ -44276,19 +44255,19 @@
         <v>101</v>
       </c>
       <c r="CC175" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="CD175" s="1" t="s">
         <v>2392</v>
       </c>
-      <c r="CD175" s="1" t="s">
+      <c r="CE175" s="1" t="s">
         <v>2393</v>
       </c>
-      <c r="CE175" s="1" t="s">
+      <c r="CG175" s="1" t="s">
         <v>2394</v>
       </c>
-      <c r="CG175" s="1" t="s">
+      <c r="CH175" s="1" t="s">
         <v>2395</v>
-      </c>
-      <c r="CH175" s="1" t="s">
-        <v>2396</v>
       </c>
       <c r="CI175" s="1" t="s">
         <v>130</v>
@@ -44326,13 +44305,13 @@
         <v>96</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2397</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2398</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2399</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>100</v>
@@ -44361,12 +44340,7 @@
       <c r="AA176" s="1">
         <v>0</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2359</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>106</v>
       </c>
@@ -44416,7 +44390,7 @@
         <v>101</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="BB176" s="1">
         <v>2</v>
@@ -44425,7 +44399,7 @@
         <v>20</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="BE176" s="1" t="s">
         <v>113</v>
@@ -44437,7 +44411,7 @@
         <v>115</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="BI176" s="1" t="s">
         <v>758</v>
@@ -44449,7 +44423,7 @@
         <v>105</v>
       </c>
       <c r="BT176" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="BU176" s="1" t="s">
         <v>122</v>
@@ -44467,16 +44441,16 @@
         <v>101</v>
       </c>
       <c r="CC176" s="1" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="CD176" s="1" t="s">
         <v>1267</v>
       </c>
       <c r="CE176" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="CG176" s="1" t="s">
         <v>2405</v>
-      </c>
-      <c r="CG176" s="1" t="s">
-        <v>2406</v>
       </c>
       <c r="CH176" s="1" t="s">
         <v>764</v>
@@ -44517,13 +44491,13 @@
         <v>96</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2407</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2408</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2409</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>100</v>
@@ -44555,12 +44529,7 @@
       <c r="AB177" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2359</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>106</v>
       </c>
@@ -44610,7 +44579,7 @@
         <v>101</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="BB177" s="1">
         <v>2</v>
@@ -44619,7 +44588,7 @@
         <v>20</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="BE177" s="1" t="s">
         <v>113</v>
@@ -44631,7 +44600,7 @@
         <v>115</v>
       </c>
       <c r="BH177" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="BI177" s="1" t="s">
         <v>1962</v>
@@ -44643,7 +44612,7 @@
         <v>105</v>
       </c>
       <c r="BT177" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="BU177" s="1" t="s">
         <v>122</v>
@@ -44664,13 +44633,13 @@
         <v>693</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2414</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CG177" s="1" t="s">
         <v>2415</v>
-      </c>
-      <c r="CG177" s="1" t="s">
-        <v>2416</v>
       </c>
       <c r="CH177" s="1" t="s">
         <v>1969</v>
@@ -44711,13 +44680,13 @@
         <v>96</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2418</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2419</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>100</v>
@@ -44746,12 +44715,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2359</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>106</v>
       </c>
@@ -44801,7 +44765,7 @@
         <v>101</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BB178" s="1">
         <v>2</v>
@@ -44810,7 +44774,7 @@
         <v>20</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="BE178" s="1" t="s">
         <v>113</v>
@@ -44822,7 +44786,7 @@
         <v>115</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="BI178" s="1" t="s">
         <v>973</v>
@@ -44834,7 +44798,7 @@
         <v>105</v>
       </c>
       <c r="BT178" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="BU178" s="1" t="s">
         <v>122</v>
@@ -44852,16 +44816,16 @@
         <v>101</v>
       </c>
       <c r="CC178" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="CD178" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="CE178" s="1" t="s">
         <v>2424</v>
       </c>
-      <c r="CD178" s="1" t="s">
-        <v>2424</v>
-      </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CG178" s="1" t="s">
         <v>2425</v>
-      </c>
-      <c r="CG178" s="1" t="s">
-        <v>2426</v>
       </c>
       <c r="CH178" s="1" t="s">
         <v>978</v>
@@ -44902,13 +44866,13 @@
         <v>96</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2427</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2428</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2429</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>100</v>
@@ -44943,12 +44907,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2359</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>106</v>
       </c>
@@ -44995,7 +44954,7 @@
         <v>101</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="BB179" s="1">
         <v>2</v>
@@ -45004,7 +44963,7 @@
         <v>20</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="BE179" s="1" t="s">
         <v>113</v>
@@ -45016,10 +44975,10 @@
         <v>115</v>
       </c>
       <c r="BH179" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="BI179" s="1" t="s">
         <v>2432</v>
-      </c>
-      <c r="BI179" s="1" t="s">
-        <v>2433</v>
       </c>
       <c r="BM179" s="1" t="s">
         <v>118</v>
@@ -45031,13 +44990,13 @@
         <v>119</v>
       </c>
       <c r="BR179" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="BS179" s="3">
         <v>35243</v>
       </c>
       <c r="BT179" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="BU179" s="1" t="s">
         <v>122</v>
@@ -45055,19 +45014,19 @@
         <v>101</v>
       </c>
       <c r="CC179" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="CD179" s="1" t="s">
         <v>2436</v>
       </c>
-      <c r="CD179" s="1" t="s">
+      <c r="CE179" s="1" t="s">
         <v>2437</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CG179" s="1" t="s">
         <v>2438</v>
       </c>
-      <c r="CG179" s="1" t="s">
+      <c r="CH179" s="1" t="s">
         <v>2439</v>
-      </c>
-      <c r="CH179" s="1" t="s">
-        <v>2440</v>
       </c>
       <c r="CI179" s="1" t="s">
         <v>130</v>
@@ -45105,13 +45064,13 @@
         <v>96</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2441</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2442</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2443</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>100</v>
@@ -45140,12 +45099,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2359</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>106</v>
       </c>
@@ -45195,7 +45149,7 @@
         <v>101</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BB180" s="1">
         <v>2</v>
@@ -45204,7 +45158,7 @@
         <v>20</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="BE180" s="1" t="s">
         <v>113</v>
@@ -45216,7 +45170,7 @@
         <v>115</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="BI180" s="1" t="s">
         <v>1186</v>
@@ -45228,7 +45182,7 @@
         <v>105</v>
       </c>
       <c r="BT180" s="1" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="BU180" s="1" t="s">
         <v>122</v>
@@ -45246,16 +45200,16 @@
         <v>101</v>
       </c>
       <c r="CC180" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="CD180" s="1" t="s">
         <v>2448</v>
       </c>
-      <c r="CD180" s="1" t="s">
+      <c r="CE180" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CG180" s="1" t="s">
         <v>2450</v>
-      </c>
-      <c r="CG180" s="1" t="s">
-        <v>2451</v>
       </c>
       <c r="CH180" s="1" t="s">
         <v>1193</v>
@@ -45296,13 +45250,13 @@
         <v>96</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2452</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2453</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2454</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>100</v>
@@ -45331,12 +45285,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2359</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>106</v>
       </c>
@@ -45386,7 +45335,7 @@
         <v>101</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="BB181" s="1">
         <v>2</v>
@@ -45395,7 +45344,7 @@
         <v>20</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="BE181" s="1" t="s">
         <v>113</v>
@@ -45407,7 +45356,7 @@
         <v>115</v>
       </c>
       <c r="BH181" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BI181" s="1" t="s">
         <v>960</v>
@@ -45422,7 +45371,7 @@
         <v>163</v>
       </c>
       <c r="BT181" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="BU181" s="1" t="s">
         <v>122</v>
@@ -45440,16 +45389,16 @@
         <v>101</v>
       </c>
       <c r="CC181" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="CD181" s="1" t="s">
         <v>2459</v>
       </c>
-      <c r="CD181" s="1" t="s">
+      <c r="CE181" s="1" t="s">
         <v>2460</v>
       </c>
-      <c r="CE181" s="1" t="s">
+      <c r="CG181" s="1" t="s">
         <v>2461</v>
-      </c>
-      <c r="CG181" s="1" t="s">
-        <v>2462</v>
       </c>
       <c r="CH181" s="1" t="s">
         <v>966</v>
@@ -45490,13 +45439,13 @@
         <v>96</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2463</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2464</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2465</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>100</v>
@@ -45525,12 +45474,7 @@
       <c r="AA182" s="1">
         <v>0</v>
       </c>
-      <c r="AC182" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD182" s="1" t="s">
-        <v>2359</v>
-      </c>
+      <c r="AC182" s="3"/>
       <c r="AF182" s="1" t="s">
         <v>106</v>
       </c>
@@ -45577,7 +45521,7 @@
         <v>101</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="BB182" s="1">
         <v>2</v>
@@ -45586,7 +45530,7 @@
         <v>20</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BE182" s="1" t="s">
         <v>113</v>
@@ -45598,7 +45542,7 @@
         <v>115</v>
       </c>
       <c r="BH182" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BI182" s="1" t="s">
         <v>464</v>
@@ -45613,13 +45557,13 @@
         <v>231</v>
       </c>
       <c r="BR182" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="BS182" s="3">
         <v>34307</v>
       </c>
       <c r="BT182" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BU182" s="1" t="s">
         <v>122</v>
@@ -45637,16 +45581,16 @@
         <v>101</v>
       </c>
       <c r="CC182" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="CD182" s="1" t="s">
         <v>428</v>
       </c>
       <c r="CE182" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="CG182" s="1" t="s">
         <v>2472</v>
-      </c>
-      <c r="CG182" s="1" t="s">
-        <v>2473</v>
       </c>
       <c r="CH182" s="1" t="s">
         <v>471</v>
@@ -45663,13 +45607,13 @@
         <v>88</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>2474</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="E183" s="1" t="s">
         <v>2475</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>2476</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>101</v>
@@ -45681,19 +45625,19 @@
         <v>94</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2478</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2479</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2480</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>100</v>
@@ -45725,12 +45669,7 @@
       <c r="AA183" s="1">
         <v>0</v>
       </c>
-      <c r="AC183" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD183" s="1" t="s">
-        <v>2359</v>
-      </c>
+      <c r="AC183" s="3"/>
       <c r="AF183" s="1" t="s">
         <v>106</v>
       </c>
@@ -45780,7 +45719,7 @@
         <v>101</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="BB183" s="1">
         <v>2</v>
@@ -45789,7 +45728,7 @@
         <v>20</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="BE183" s="1" t="s">
         <v>113</v>
@@ -45801,7 +45740,7 @@
         <v>115</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="BI183" s="1" t="s">
         <v>381</v>
@@ -45813,7 +45752,7 @@
         <v>105</v>
       </c>
       <c r="BT183" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="BU183" s="1" t="s">
         <v>122</v>
@@ -45834,16 +45773,16 @@
         <v>101</v>
       </c>
       <c r="CC183" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="CD183" s="1" t="s">
         <v>2485</v>
       </c>
-      <c r="CD183" s="1" t="s">
+      <c r="CE183" s="1" t="s">
         <v>2486</v>
       </c>
-      <c r="CE183" s="1" t="s">
+      <c r="CG183" s="1" t="s">
         <v>2487</v>
-      </c>
-      <c r="CG183" s="1" t="s">
-        <v>2488</v>
       </c>
       <c r="CH183" s="1" t="s">
         <v>388</v>
@@ -45884,13 +45823,13 @@
         <v>96</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2489</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2490</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2491</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>100</v>
@@ -45919,12 +45858,7 @@
       <c r="AA184" s="1">
         <v>0</v>
       </c>
-      <c r="AC184" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD184" s="1" t="s">
-        <v>2359</v>
-      </c>
+      <c r="AC184" s="3"/>
       <c r="AF184" s="1" t="s">
         <v>106</v>
       </c>
@@ -45971,7 +45905,7 @@
         <v>101</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="BB184" s="1">
         <v>2</v>
@@ -45980,7 +45914,7 @@
         <v>20</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="BE184" s="1" t="s">
         <v>113</v>
@@ -45992,10 +45926,10 @@
         <v>115</v>
       </c>
       <c r="BH184" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="BI184" s="1" t="s">
         <v>2494</v>
-      </c>
-      <c r="BI184" s="1" t="s">
-        <v>2495</v>
       </c>
       <c r="BM184" s="1" t="s">
         <v>118</v>
@@ -46007,13 +45941,13 @@
         <v>119</v>
       </c>
       <c r="BR184" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="BS184" s="3">
         <v>35950</v>
       </c>
       <c r="BT184" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="BU184" s="1" t="s">
         <v>122</v>
@@ -46031,19 +45965,19 @@
         <v>101</v>
       </c>
       <c r="CC184" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="CD184" s="1" t="s">
         <v>1858</v>
       </c>
       <c r="CE184" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="CG184" s="1" t="s">
         <v>2499</v>
       </c>
-      <c r="CG184" s="1" t="s">
+      <c r="CH184" s="1" t="s">
         <v>2500</v>
-      </c>
-      <c r="CH184" s="1" t="s">
-        <v>2501</v>
       </c>
       <c r="CI184" s="1" t="s">
         <v>130</v>
@@ -46081,13 +46015,13 @@
         <v>96</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2502</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2503</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2504</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>100</v>
@@ -46168,7 +46102,7 @@
         <v>101</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="BB185" s="1">
         <v>2</v>
@@ -46177,7 +46111,7 @@
         <v>20</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="BE185" s="1" t="s">
         <v>113</v>
@@ -46189,7 +46123,7 @@
         <v>115</v>
       </c>
       <c r="BH185" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="BI185" s="1" t="s">
         <v>1904</v>
@@ -46204,7 +46138,7 @@
         <v>163</v>
       </c>
       <c r="BT185" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="BU185" s="1" t="s">
         <v>122</v>
@@ -46222,16 +46156,16 @@
         <v>101</v>
       </c>
       <c r="CC185" s="1" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="CD185" s="1" t="s">
         <v>428</v>
       </c>
       <c r="CE185" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="CG185" s="1" t="s">
         <v>2510</v>
-      </c>
-      <c r="CG185" s="1" t="s">
-        <v>2511</v>
       </c>
       <c r="CH185" s="1" t="s">
         <v>1908</v>
@@ -46272,13 +46206,13 @@
         <v>96</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2512</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2513</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2514</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>100</v>
@@ -46353,7 +46287,7 @@
         <v>101</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="BB186" s="1">
         <v>2</v>
@@ -46362,7 +46296,7 @@
         <v>20</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="BE186" s="1" t="s">
         <v>113</v>
@@ -46374,10 +46308,10 @@
         <v>115</v>
       </c>
       <c r="BH186" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="BI186" s="1" t="s">
         <v>2517</v>
-      </c>
-      <c r="BI186" s="1" t="s">
-        <v>2518</v>
       </c>
       <c r="BM186" s="1" t="s">
         <v>118</v>
@@ -46389,13 +46323,13 @@
         <v>231</v>
       </c>
       <c r="BR186" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="BS186" s="3">
         <v>36099</v>
       </c>
       <c r="BT186" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="BU186" s="1" t="s">
         <v>122</v>
@@ -46413,19 +46347,19 @@
         <v>101</v>
       </c>
       <c r="CC186" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="CD186" s="1" t="s">
         <v>2521</v>
       </c>
-      <c r="CD186" s="1" t="s">
+      <c r="CE186" s="1" t="s">
         <v>2522</v>
       </c>
-      <c r="CE186" s="1" t="s">
+      <c r="CG186" s="1" t="s">
         <v>2523</v>
       </c>
-      <c r="CG186" s="1" t="s">
+      <c r="CH186" s="1" t="s">
         <v>2524</v>
-      </c>
-      <c r="CH186" s="1" t="s">
-        <v>2525</v>
       </c>
       <c r="CI186" s="1" t="s">
         <v>130</v>
@@ -46463,13 +46397,13 @@
         <v>96</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2526</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2527</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2528</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>100</v>
@@ -46544,7 +46478,7 @@
         <v>101</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="BB187" s="1">
         <v>2</v>
@@ -46553,7 +46487,7 @@
         <v>20</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="BE187" s="1" t="s">
         <v>113</v>
@@ -46565,10 +46499,10 @@
         <v>115</v>
       </c>
       <c r="BH187" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="BI187" s="1" t="s">
         <v>2531</v>
-      </c>
-      <c r="BI187" s="1" t="s">
-        <v>2532</v>
       </c>
       <c r="BM187" s="1" t="s">
         <v>118</v>
@@ -46580,13 +46514,13 @@
         <v>102</v>
       </c>
       <c r="BR187" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BS187" s="3">
         <v>37735</v>
       </c>
       <c r="BT187" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="BU187" s="1" t="s">
         <v>122</v>
@@ -46604,19 +46538,19 @@
         <v>101</v>
       </c>
       <c r="CC187" s="1" t="s">
+        <v>2534</v>
+      </c>
+      <c r="CD187" s="1" t="s">
         <v>2535</v>
       </c>
-      <c r="CD187" s="1" t="s">
+      <c r="CE187" s="1" t="s">
         <v>2536</v>
       </c>
-      <c r="CE187" s="1" t="s">
+      <c r="CG187" s="1" t="s">
         <v>2537</v>
       </c>
-      <c r="CG187" s="1" t="s">
+      <c r="CH187" s="1" t="s">
         <v>2538</v>
-      </c>
-      <c r="CH187" s="1" t="s">
-        <v>2539</v>
       </c>
       <c r="CI187" s="1" t="s">
         <v>130</v>
@@ -46654,13 +46588,13 @@
         <v>96</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2540</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2541</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2542</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>100</v>
@@ -46738,7 +46672,7 @@
         <v>101</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="BB188" s="1">
         <v>2</v>
@@ -46747,7 +46681,7 @@
         <v>20</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="BE188" s="1" t="s">
         <v>113</v>
@@ -46759,7 +46693,7 @@
         <v>115</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="BI188" s="1" t="s">
         <v>381</v>
@@ -46771,7 +46705,7 @@
         <v>105</v>
       </c>
       <c r="BT188" s="1" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="BU188" s="1" t="s">
         <v>122</v>
@@ -46789,16 +46723,16 @@
         <v>101</v>
       </c>
       <c r="CC188" s="1" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="CD188" s="1" t="s">
         <v>899</v>
       </c>
       <c r="CE188" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="CG188" s="1" t="s">
         <v>2548</v>
-      </c>
-      <c r="CG188" s="1" t="s">
-        <v>2549</v>
       </c>
       <c r="CH188" s="1" t="s">
         <v>388</v>
@@ -46821,7 +46755,7 @@
         <v>188</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>101</v>
@@ -46833,19 +46767,19 @@
         <v>94</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2551</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2552</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2553</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2554</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>100</v>
@@ -46881,7 +46815,7 @@
         <v>106</v>
       </c>
       <c r="AG189" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="AH189" s="1" t="s">
         <v>1985</v>
@@ -46926,7 +46860,7 @@
         <v>101</v>
       </c>
       <c r="AZ189" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="BB189" s="1">
         <v>2</v>
@@ -46935,7 +46869,7 @@
         <v>20</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="BE189" s="1" t="s">
         <v>113</v>
@@ -46947,7 +46881,7 @@
         <v>115</v>
       </c>
       <c r="BH189" s="1" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="BM189" s="1" t="s">
         <v>118</v>
@@ -46956,7 +46890,7 @@
         <v>105</v>
       </c>
       <c r="BT189" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="BU189" s="1" t="s">
         <v>122</v>
@@ -46965,7 +46899,7 @@
         <v>0</v>
       </c>
       <c r="BZ189" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="CA189" s="1" t="s">
         <v>124</v>
@@ -46977,13 +46911,13 @@
         <v>1644</v>
       </c>
       <c r="CD189" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="CE189" s="1" t="s">
         <v>2561</v>
       </c>
-      <c r="CE189" s="1" t="s">
+      <c r="CG189" s="1" t="s">
         <v>2562</v>
-      </c>
-      <c r="CG189" s="1" t="s">
-        <v>2563</v>
       </c>
       <c r="CH189" s="1" t="s">
         <v>130</v>
@@ -47024,13 +46958,13 @@
         <v>96</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2564</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2565</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2566</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>100</v>
@@ -47108,7 +47042,7 @@
         <v>101</v>
       </c>
       <c r="AZ190" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="BB190" s="1">
         <v>2</v>
@@ -47117,7 +47051,7 @@
         <v>20</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="BE190" s="1" t="s">
         <v>113</v>
@@ -47129,10 +47063,10 @@
         <v>115</v>
       </c>
       <c r="BH190" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="BI190" s="1" t="s">
         <v>2569</v>
-      </c>
-      <c r="BI190" s="1" t="s">
-        <v>2570</v>
       </c>
       <c r="BM190" s="1" t="s">
         <v>118</v>
@@ -47144,13 +47078,13 @@
         <v>102</v>
       </c>
       <c r="BR190" s="1" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="BS190" s="3">
         <v>43602</v>
       </c>
       <c r="BT190" s="1" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="BU190" s="1" t="s">
         <v>122</v>
@@ -47174,13 +47108,13 @@
         <v>990</v>
       </c>
       <c r="CE190" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="CG190" s="1" t="s">
         <v>2573</v>
       </c>
-      <c r="CG190" s="1" t="s">
+      <c r="CH190" s="1" t="s">
         <v>2574</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2575</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>130</v>
@@ -47218,13 +47152,13 @@
         <v>96</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2576</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2577</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2578</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>100</v>
@@ -47302,7 +47236,7 @@
         <v>101</v>
       </c>
       <c r="AZ191" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BB191" s="1">
         <v>2</v>
@@ -47311,7 +47245,7 @@
         <v>20</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BE191" s="1" t="s">
         <v>113</v>
@@ -47323,7 +47257,7 @@
         <v>115</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="BI191" s="1" t="s">
         <v>2302</v>
@@ -47335,7 +47269,7 @@
         <v>105</v>
       </c>
       <c r="BT191" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="BU191" s="1" t="s">
         <v>122</v>
@@ -47353,16 +47287,16 @@
         <v>101</v>
       </c>
       <c r="CC191" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="CD191" s="1" t="s">
         <v>2583</v>
       </c>
-      <c r="CD191" s="1" t="s">
+      <c r="CE191" s="1" t="s">
         <v>2584</v>
       </c>
-      <c r="CE191" s="1" t="s">
+      <c r="CG191" s="1" t="s">
         <v>2585</v>
-      </c>
-      <c r="CG191" s="1" t="s">
-        <v>2586</v>
       </c>
       <c r="CH191" s="1" t="s">
         <v>2305</v>
@@ -47403,13 +47337,13 @@
         <v>96</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2587</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2588</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2589</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>100</v>
@@ -47448,7 +47382,7 @@
         <v>42247</v>
       </c>
       <c r="AD192" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="AF192" s="1" t="s">
         <v>106</v>
@@ -47502,7 +47436,7 @@
         <v>20</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BE192" s="1" t="s">
         <v>113</v>
@@ -47514,10 +47448,10 @@
         <v>115</v>
       </c>
       <c r="BH192" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="BI192" s="1" t="s">
         <v>2592</v>
-      </c>
-      <c r="BI192" s="1" t="s">
-        <v>2593</v>
       </c>
       <c r="BM192" s="1" t="s">
         <v>118</v>
@@ -47529,13 +47463,13 @@
         <v>231</v>
       </c>
       <c r="BR192" s="1" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="BS192" s="3">
         <v>36580</v>
       </c>
       <c r="BT192" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="BU192" s="1" t="s">
         <v>122</v>
@@ -47556,7 +47490,7 @@
         <v>101</v>
       </c>
       <c r="CC192" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="CD192" s="1" t="s">
         <v>297</v>
@@ -47565,10 +47499,10 @@
         <v>1673</v>
       </c>
       <c r="CG192" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="CH192" s="1" t="s">
         <v>2597</v>
-      </c>
-      <c r="CH192" s="1" t="s">
-        <v>2598</v>
       </c>
       <c r="CI192" s="1" t="s">
         <v>130</v>
@@ -47606,13 +47540,13 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2599</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2600</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2601</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
@@ -47693,7 +47627,7 @@
         <v>20</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="BE193" s="1" t="s">
         <v>113</v>
@@ -47705,7 +47639,7 @@
         <v>115</v>
       </c>
       <c r="BH193" s="1" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="BI193" s="1" t="s">
         <v>1904</v>
@@ -47720,13 +47654,13 @@
         <v>119</v>
       </c>
       <c r="BR193" s="1" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="BS193" s="3">
         <v>37747</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>122</v>
@@ -47750,10 +47684,10 @@
         <v>681</v>
       </c>
       <c r="CE193" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="CG193" s="1" t="s">
         <v>2606</v>
-      </c>
-      <c r="CG193" s="1" t="s">
-        <v>2607</v>
       </c>
       <c r="CH193" s="1" t="s">
         <v>1908</v>
@@ -47794,13 +47728,13 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2608</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2609</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2610</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
@@ -47884,7 +47818,7 @@
         <v>20</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="BE194" s="1" t="s">
         <v>113</v>
@@ -47896,7 +47830,7 @@
         <v>115</v>
       </c>
       <c r="BH194" s="1" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="BM194" s="1" t="s">
         <v>118</v>
@@ -47905,7 +47839,7 @@
         <v>105</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>122</v>
@@ -47923,16 +47857,16 @@
         <v>101</v>
       </c>
       <c r="CC194" s="1" t="s">
+        <v>2613</v>
+      </c>
+      <c r="CD194" s="1" t="s">
         <v>2614</v>
       </c>
-      <c r="CD194" s="1" t="s">
+      <c r="CE194" s="1" t="s">
         <v>2615</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CG194" s="1" t="s">
         <v>2616</v>
-      </c>
-      <c r="CG194" s="1" t="s">
-        <v>2617</v>
       </c>
       <c r="CH194" s="1" t="s">
         <v>130</v>
@@ -47973,13 +47907,13 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2617</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2618</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2619</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2620</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
@@ -48063,7 +47997,7 @@
         <v>20</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="BE195" s="1" t="s">
         <v>113</v>
@@ -48075,7 +48009,7 @@
         <v>115</v>
       </c>
       <c r="BH195" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="BI195" s="1" t="s">
         <v>973</v>
@@ -48087,7 +48021,7 @@
         <v>105</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>122</v>
@@ -48105,16 +48039,16 @@
         <v>101</v>
       </c>
       <c r="CC195" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="CD195" s="1" t="s">
         <v>2624</v>
       </c>
-      <c r="CD195" s="1" t="s">
+      <c r="CE195" s="1" t="s">
         <v>2625</v>
       </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CG195" s="1" t="s">
         <v>2626</v>
-      </c>
-      <c r="CG195" s="1" t="s">
-        <v>2627</v>
       </c>
       <c r="CH195" s="1" t="s">
         <v>978</v>
@@ -48155,13 +48089,13 @@
         <v>96</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2628</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2629</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2630</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
@@ -48242,7 +48176,7 @@
         <v>20</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="BE196" s="1" t="s">
         <v>113</v>
@@ -48254,10 +48188,10 @@
         <v>115</v>
       </c>
       <c r="BH196" s="1" t="s">
+        <v>2631</v>
+      </c>
+      <c r="BI196" s="1" t="s">
         <v>2632</v>
-      </c>
-      <c r="BI196" s="1" t="s">
-        <v>2633</v>
       </c>
       <c r="BM196" s="1" t="s">
         <v>118</v>
@@ -48269,13 +48203,13 @@
         <v>102</v>
       </c>
       <c r="BR196" s="1" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="BS196" s="3">
         <v>37334</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>122</v>
@@ -48296,16 +48230,16 @@
         <v>524</v>
       </c>
       <c r="CD196" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="CE196" s="1" t="s">
         <v>2636</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CG196" s="1" t="s">
         <v>2637</v>
       </c>
-      <c r="CG196" s="1" t="s">
+      <c r="CH196" s="1" t="s">
         <v>2638</v>
-      </c>
-      <c r="CH196" s="1" t="s">
-        <v>2639</v>
       </c>
       <c r="CI196" s="1" t="s">
         <v>130</v>
@@ -48343,13 +48277,13 @@
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2639</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2640</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2641</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2642</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
@@ -48430,7 +48364,7 @@
         <v>20</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="BE197" s="1" t="s">
         <v>113</v>
@@ -48442,10 +48376,10 @@
         <v>115</v>
       </c>
       <c r="BH197" s="1" t="s">
+        <v>2643</v>
+      </c>
+      <c r="BI197" s="1" t="s">
         <v>2644</v>
-      </c>
-      <c r="BI197" s="1" t="s">
-        <v>2645</v>
       </c>
       <c r="BM197" s="1" t="s">
         <v>118</v>
@@ -48457,13 +48391,13 @@
         <v>102</v>
       </c>
       <c r="BR197" s="1" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="BS197" s="3">
         <v>37904</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>122</v>
@@ -48484,16 +48418,16 @@
         <v>990</v>
       </c>
       <c r="CD197" s="1" t="s">
+        <v>2647</v>
+      </c>
+      <c r="CE197" s="1" t="s">
         <v>2648</v>
       </c>
-      <c r="CE197" s="1" t="s">
+      <c r="CG197" s="1" t="s">
         <v>2649</v>
       </c>
-      <c r="CG197" s="1" t="s">
+      <c r="CH197" s="1" t="s">
         <v>2650</v>
-      </c>
-      <c r="CH197" s="1" t="s">
-        <v>2651</v>
       </c>
       <c r="CI197" s="1" t="s">
         <v>130</v>
@@ -48513,7 +48447,7 @@
         <v>188</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>101</v>
@@ -48525,19 +48459,19 @@
         <v>94</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2652</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2653</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2654</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
@@ -48618,7 +48552,7 @@
         <v>20</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="BE198" s="1" t="s">
         <v>113</v>
@@ -48630,7 +48564,7 @@
         <v>115</v>
       </c>
       <c r="BH198" s="1" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="BI198" s="1" t="s">
         <v>381</v>
@@ -48645,13 +48579,13 @@
         <v>119</v>
       </c>
       <c r="BR198" s="1" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="BS198" s="3">
         <v>36111</v>
       </c>
       <c r="BT198" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="BU198" s="1" t="s">
         <v>122</v>
@@ -48660,7 +48594,7 @@
         <v>0</v>
       </c>
       <c r="BZ198" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="CA198" s="1" t="s">
         <v>124</v>
@@ -48669,16 +48603,16 @@
         <v>101</v>
       </c>
       <c r="CC198" s="1" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="CD198" s="1" t="s">
         <v>1173</v>
       </c>
       <c r="CE198" s="1" t="s">
+        <v>2659</v>
+      </c>
+      <c r="CG198" s="1" t="s">
         <v>2660</v>
-      </c>
-      <c r="CG198" s="1" t="s">
-        <v>2661</v>
       </c>
       <c r="CH198" s="1" t="s">
         <v>388</v>
@@ -48719,13 +48653,13 @@
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2661</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2662</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2663</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2664</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
@@ -48806,7 +48740,7 @@
         <v>20</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="BE199" s="1" t="s">
         <v>113</v>
@@ -48818,10 +48752,10 @@
         <v>115</v>
       </c>
       <c r="BH199" s="1" t="s">
+        <v>2665</v>
+      </c>
+      <c r="BI199" s="1" t="s">
         <v>2666</v>
-      </c>
-      <c r="BI199" s="1" t="s">
-        <v>2667</v>
       </c>
       <c r="BM199" s="1" t="s">
         <v>118</v>
@@ -48833,13 +48767,13 @@
         <v>119</v>
       </c>
       <c r="BR199" s="1" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="BS199" s="3">
         <v>37785</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>122</v>
@@ -48857,19 +48791,19 @@
         <v>101</v>
       </c>
       <c r="CC199" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="CD199" s="1" t="s">
         <v>2670</v>
       </c>
-      <c r="CD199" s="1" t="s">
+      <c r="CE199" s="1" t="s">
         <v>2671</v>
       </c>
-      <c r="CE199" s="1" t="s">
+      <c r="CG199" s="1" t="s">
         <v>2672</v>
       </c>
-      <c r="CG199" s="1" t="s">
+      <c r="CH199" s="1" t="s">
         <v>2673</v>
-      </c>
-      <c r="CH199" s="1" t="s">
-        <v>2674</v>
       </c>
       <c r="CI199" s="1" t="s">
         <v>130</v>
@@ -48883,10 +48817,10 @@
         <v>88</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>152</v>
@@ -48901,19 +48835,19 @@
         <v>94</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2677</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2678</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2679</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
@@ -48997,7 +48931,7 @@
         <v>20</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="BE200" s="1" t="s">
         <v>113</v>
@@ -49009,7 +48943,7 @@
         <v>115</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="BI200" s="1" t="s">
         <v>381</v>
@@ -49021,7 +48955,7 @@
         <v>105</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>122</v>
@@ -49030,7 +48964,7 @@
         <v>0</v>
       </c>
       <c r="BZ200" s="1" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="CA200" s="1" t="s">
         <v>124</v>
@@ -49042,13 +48976,13 @@
         <v>1302</v>
       </c>
       <c r="CD200" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="CE200" s="1" t="s">
         <v>2684</v>
       </c>
-      <c r="CE200" s="1" t="s">
+      <c r="CG200" s="1" t="s">
         <v>2685</v>
-      </c>
-      <c r="CG200" s="1" t="s">
-        <v>2686</v>
       </c>
       <c r="CH200" s="1" t="s">
         <v>388</v>
@@ -49089,13 +49023,13 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2687</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2688</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2689</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
@@ -49173,7 +49107,7 @@
         <v>101</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="BB201" s="1">
         <v>2</v>
@@ -49182,7 +49116,7 @@
         <v>20</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="BE201" s="1" t="s">
         <v>113</v>
@@ -49203,7 +49137,7 @@
         <v>105</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>122</v>
@@ -49221,13 +49155,13 @@
         <v>101</v>
       </c>
       <c r="CC201" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="CD201" s="1" t="s">
         <v>2693</v>
       </c>
-      <c r="CD201" s="1" t="s">
+      <c r="CE201" s="1" t="s">
         <v>2694</v>
-      </c>
-      <c r="CE201" s="1" t="s">
-        <v>2695</v>
       </c>
       <c r="CG201" s="1" t="s">
         <v>1067</v>
@@ -49271,13 +49205,13 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2696</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2697</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2698</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
@@ -49355,7 +49289,7 @@
         <v>101</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="BB202" s="1">
         <v>2</v>
@@ -49364,7 +49298,7 @@
         <v>20</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="BE202" s="1" t="s">
         <v>113</v>
@@ -49376,7 +49310,7 @@
         <v>115</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="BI202" s="1" t="s">
         <v>1904</v>
@@ -49388,7 +49322,7 @@
         <v>105</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>122</v>
@@ -49406,16 +49340,16 @@
         <v>101</v>
       </c>
       <c r="CC202" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="CD202" s="1" t="s">
         <v>1150</v>
       </c>
       <c r="CE202" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="CG202" s="1" t="s">
         <v>2703</v>
-      </c>
-      <c r="CG202" s="1" t="s">
-        <v>2704</v>
       </c>
       <c r="CH202" s="1" t="s">
         <v>1908</v>
@@ -49456,13 +49390,13 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2705</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2706</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2707</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
@@ -49540,7 +49474,7 @@
         <v>101</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="BB203" s="1">
         <v>2</v>
@@ -49549,7 +49483,7 @@
         <v>20</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="BE203" s="1" t="s">
         <v>113</v>
@@ -49570,7 +49504,7 @@
         <v>105</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>122</v>
@@ -49591,10 +49525,10 @@
         <v>1150</v>
       </c>
       <c r="CD203" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="CE203" s="1" t="s">
         <v>2711</v>
-      </c>
-      <c r="CE203" s="1" t="s">
-        <v>2712</v>
       </c>
       <c r="CG203" s="1" t="s">
         <v>1067</v>
@@ -49638,13 +49572,13 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2713</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2714</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2715</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
@@ -49722,7 +49656,7 @@
         <v>101</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="BB204" s="1">
         <v>2</v>
@@ -49731,7 +49665,7 @@
         <v>20</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="BE204" s="1" t="s">
         <v>113</v>
@@ -49743,10 +49677,10 @@
         <v>115</v>
       </c>
       <c r="BH204" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="BI204" s="1" t="s">
         <v>2718</v>
-      </c>
-      <c r="BI204" s="1" t="s">
-        <v>2719</v>
       </c>
       <c r="BM204" s="1" t="s">
         <v>118</v>
@@ -49761,13 +49695,13 @@
         <v>163</v>
       </c>
       <c r="BR204" s="1" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="BS204" s="3">
         <v>37513</v>
       </c>
       <c r="BT204" s="1" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="BU204" s="1" t="s">
         <v>122</v>
@@ -49785,19 +49719,19 @@
         <v>101</v>
       </c>
       <c r="CC204" s="1" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="CD204" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE204" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="CG204" s="1" t="s">
         <v>2723</v>
       </c>
-      <c r="CG204" s="1" t="s">
+      <c r="CH204" s="1" t="s">
         <v>2724</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2725</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>130</v>
@@ -49835,13 +49769,13 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2726</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2727</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2728</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
@@ -49922,7 +49856,7 @@
         <v>20</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="BE205" s="1" t="s">
         <v>113</v>
@@ -49934,10 +49868,10 @@
         <v>115</v>
       </c>
       <c r="BH205" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="BI205" s="1" t="s">
         <v>2730</v>
-      </c>
-      <c r="BI205" s="1" t="s">
-        <v>2731</v>
       </c>
       <c r="BM205" s="1" t="s">
         <v>118</v>
@@ -49949,13 +49883,13 @@
         <v>102</v>
       </c>
       <c r="BR205" s="1" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="BS205" s="3">
         <v>41024</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>122</v>
@@ -49973,19 +49907,19 @@
         <v>101</v>
       </c>
       <c r="CC205" s="1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="CD205" s="1" t="s">
         <v>2734</v>
       </c>
-      <c r="CD205" s="1" t="s">
+      <c r="CE205" s="1" t="s">
         <v>2735</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CG205" s="1" t="s">
         <v>2736</v>
       </c>
-      <c r="CG205" s="1" t="s">
+      <c r="CH205" s="1" t="s">
         <v>2737</v>
-      </c>
-      <c r="CH205" s="1" t="s">
-        <v>2738</v>
       </c>
       <c r="CI205" s="1" t="s">
         <v>130</v>
@@ -50023,13 +49957,13 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2739</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2740</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2741</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
@@ -50065,7 +49999,7 @@
         <v>106</v>
       </c>
       <c r="AG206" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="AH206" s="1" t="s">
         <v>1985</v>
@@ -50110,7 +50044,7 @@
         <v>101</v>
       </c>
       <c r="AZ206" s="1" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="BB206" s="1">
         <v>2</v>
@@ -50119,7 +50053,7 @@
         <v>20</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="BE206" s="1" t="s">
         <v>113</v>
@@ -50131,7 +50065,7 @@
         <v>115</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="BI206" s="1" t="s">
         <v>1962</v>
@@ -50146,13 +50080,13 @@
         <v>119</v>
       </c>
       <c r="BR206" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="BS206" s="3">
         <v>34808</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>122</v>
@@ -50170,16 +50104,16 @@
         <v>101</v>
       </c>
       <c r="CC206" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="CD206" s="1" t="s">
         <v>2747</v>
       </c>
-      <c r="CD206" s="1" t="s">
+      <c r="CE206" s="1" t="s">
         <v>2748</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CG206" s="1" t="s">
         <v>2749</v>
-      </c>
-      <c r="CG206" s="1" t="s">
-        <v>2750</v>
       </c>
       <c r="CH206" s="1" t="s">
         <v>1969</v>
@@ -50220,13 +50154,13 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2752</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2753</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
@@ -50301,7 +50235,7 @@
         <v>101</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="BB207" s="1">
         <v>2</v>
@@ -50310,7 +50244,7 @@
         <v>20</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="BE207" s="1" t="s">
         <v>113</v>
@@ -50322,10 +50256,10 @@
         <v>115</v>
       </c>
       <c r="BH207" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="BI207" s="1" t="s">
         <v>2756</v>
-      </c>
-      <c r="BI207" s="1" t="s">
-        <v>2757</v>
       </c>
       <c r="BM207" s="1" t="s">
         <v>118</v>
@@ -50337,13 +50271,13 @@
         <v>102</v>
       </c>
       <c r="BR207" s="1" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="BS207" s="3">
         <v>37336</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>122</v>
@@ -50361,19 +50295,19 @@
         <v>101</v>
       </c>
       <c r="CC207" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="CD207" s="1" t="s">
         <v>2760</v>
       </c>
-      <c r="CD207" s="1" t="s">
+      <c r="CE207" s="1" t="s">
         <v>2761</v>
       </c>
-      <c r="CE207" s="1" t="s">
+      <c r="CG207" s="1" t="s">
         <v>2762</v>
       </c>
-      <c r="CG207" s="1" t="s">
+      <c r="CH207" s="1" t="s">
         <v>2763</v>
-      </c>
-      <c r="CH207" s="1" t="s">
-        <v>2764</v>
       </c>
       <c r="CI207" s="1" t="s">
         <v>130</v>
@@ -50411,13 +50345,13 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2765</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2766</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2767</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
@@ -50495,7 +50429,7 @@
         <v>101</v>
       </c>
       <c r="AZ208" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="BB208" s="1">
         <v>2</v>
@@ -50504,7 +50438,7 @@
         <v>20</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="BE208" s="1" t="s">
         <v>113</v>
@@ -50516,10 +50450,10 @@
         <v>115</v>
       </c>
       <c r="BH208" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="BI208" s="1" t="s">
         <v>2770</v>
-      </c>
-      <c r="BI208" s="1" t="s">
-        <v>2771</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>118</v>
@@ -50528,7 +50462,7 @@
         <v>105</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>122</v>
@@ -50546,19 +50480,19 @@
         <v>101</v>
       </c>
       <c r="CC208" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="CD208" s="1" t="s">
         <v>2773</v>
       </c>
-      <c r="CD208" s="1" t="s">
+      <c r="CE208" s="1" t="s">
         <v>2774</v>
       </c>
-      <c r="CE208" s="1" t="s">
+      <c r="CG208" s="1" t="s">
         <v>2775</v>
       </c>
-      <c r="CG208" s="1" t="s">
+      <c r="CH208" s="1" t="s">
         <v>2776</v>
-      </c>
-      <c r="CH208" s="1" t="s">
-        <v>2777</v>
       </c>
       <c r="CI208" s="1" t="s">
         <v>130</v>
@@ -50596,13 +50530,13 @@
         <v>96</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2778</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="N209" s="1" t="s">
         <v>2779</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2780</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>100</v>
@@ -50686,7 +50620,7 @@
         <v>20</v>
       </c>
       <c r="BD209" s="1" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="BE209" s="1" t="s">
         <v>113</v>
@@ -50698,7 +50632,7 @@
         <v>115</v>
       </c>
       <c r="BH209" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>118</v>
@@ -50707,7 +50641,7 @@
         <v>105</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>122</v>
@@ -50725,16 +50659,16 @@
         <v>101</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2784</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2785</v>
       </c>
-      <c r="CE209" s="1" t="s">
+      <c r="CG209" s="1" t="s">
         <v>2786</v>
-      </c>
-      <c r="CG209" s="1" t="s">
-        <v>2787</v>
       </c>
       <c r="CH209" s="1" t="s">
         <v>130</v>
@@ -50775,13 +50709,13 @@
         <v>2222</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2788</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2789</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2790</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>100</v>
@@ -50816,12 +50750,7 @@
       <c r="AA210" s="1">
         <v>0</v>
       </c>
-      <c r="AC210" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2791</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>106</v>
       </c>
@@ -50871,7 +50800,7 @@
         <v>101</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
       <c r="BB210" s="1">
         <v>2</v>
@@ -50880,7 +50809,7 @@
         <v>20</v>
       </c>
       <c r="BD210" s="1" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
       <c r="BE210" s="1" t="s">
         <v>113</v>
@@ -50892,10 +50821,10 @@
         <v>115</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
       <c r="BI210" s="1" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>118</v>
@@ -50904,7 +50833,7 @@
         <v>105</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>122</v>
@@ -50916,7 +50845,7 @@
         <v>110</v>
       </c>
       <c r="BZ210" s="1" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
       <c r="CA210" s="1" t="s">
         <v>124</v>
@@ -50928,16 +50857,16 @@
         <v>1203</v>
       </c>
       <c r="CD210" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="CE210" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="CG210" s="1" t="s">
         <v>2798</v>
       </c>
-      <c r="CE210" s="1" t="s">
+      <c r="CH210" s="1" t="s">
         <v>2799</v>
-      </c>
-      <c r="CG210" s="1" t="s">
-        <v>2800</v>
-      </c>
-      <c r="CH210" s="1" t="s">
-        <v>2801</v>
       </c>
       <c r="CI210" s="1" t="s">
         <v>130</v>
@@ -50969,16 +50898,16 @@
         <v>94</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>110</v>
@@ -51002,7 +50931,7 @@
         <v>106</v>
       </c>
       <c r="AG211" s="1" t="s">
-        <v>2805</v>
+        <v>2803</v>
       </c>
       <c r="AH211" s="1" t="s">
         <v>61</v>
@@ -51047,7 +50976,7 @@
         <v>0</v>
       </c>
       <c r="BZ211" s="1" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
       <c r="CA211" s="1" t="s">
         <v>124</v>
@@ -51056,10 +50985,10 @@
         <v>92</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="212" spans="1:87" x14ac:dyDescent="0.25">
@@ -51076,7 +51005,7 @@
         <v>90</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>101</v>
@@ -51088,16 +51017,16 @@
         <v>94</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2810</v>
+        <v>2808</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>110</v>
@@ -51172,7 +51101,7 @@
         <v>0</v>
       </c>
       <c r="BZ212" s="1" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="CA212" s="1" t="s">
         <v>124</v>
@@ -51181,10 +51110,10 @@
         <v>101</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="213" spans="1:87" x14ac:dyDescent="0.25">
@@ -51201,7 +51130,7 @@
         <v>90</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>92</v>
@@ -51213,16 +51142,16 @@
         <v>94</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2816</v>
+        <v>2814</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>110</v>
@@ -51291,7 +51220,7 @@
         <v>0</v>
       </c>
       <c r="BZ213" s="1" t="s">
-        <v>2817</v>
+        <v>2815</v>
       </c>
       <c r="CA213" s="1" t="s">
         <v>124</v>
@@ -51300,10 +51229,10 @@
         <v>101</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2816</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="214" spans="1:87" x14ac:dyDescent="0.25">
@@ -51314,13 +51243,13 @@
         <v>88</v>
       </c>
       <c r="C214" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>2474</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>2475</v>
-      </c>
       <c r="E214" s="1" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>101</v>
@@ -51332,16 +51261,16 @@
         <v>94</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>110</v>
@@ -51365,7 +51294,7 @@
         <v>106</v>
       </c>
       <c r="AG214" s="1" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="AH214" s="1" t="s">
         <v>377</v>
@@ -51410,7 +51339,7 @@
         <v>0</v>
       </c>
       <c r="BZ214" s="1" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="CA214" s="1" t="s">
         <v>124</v>
@@ -51419,10 +51348,10 @@
         <v>101</v>
       </c>
       <c r="CC214" s="1" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="CE214" s="1" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="215" spans="1:87" x14ac:dyDescent="0.25">
@@ -51457,10 +51386,10 @@
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>110</v>
@@ -51484,7 +51413,7 @@
         <v>106</v>
       </c>
       <c r="AG215" s="1" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="AH215" s="1" t="s">
         <v>377</v>
@@ -51538,10 +51467,10 @@
         <v>101</v>
       </c>
       <c r="CC215" s="1" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="CE215" s="1" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="216" spans="1:87" x14ac:dyDescent="0.25">
@@ -51552,13 +51481,13 @@
         <v>88</v>
       </c>
       <c r="C216" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>2474</v>
       </c>
-      <c r="D216" s="1" t="s">
-        <v>2475</v>
-      </c>
       <c r="E216" s="1" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>101</v>
@@ -51570,16 +51499,16 @@
         <v>94</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>110</v>
@@ -51603,7 +51532,7 @@
         <v>106</v>
       </c>
       <c r="AG216" s="1" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="AH216" s="1" t="s">
         <v>377</v>
@@ -51648,7 +51577,7 @@
         <v>0</v>
       </c>
       <c r="BZ216" s="1" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="CA216" s="1" t="s">
         <v>124</v>
@@ -51657,10 +51586,10 @@
         <v>101</v>
       </c>
       <c r="CC216" s="1" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="CE216" s="1" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="217" spans="1:87" x14ac:dyDescent="0.25">
@@ -51695,10 +51624,10 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>110</v>
@@ -51722,7 +51651,7 @@
         <v>106</v>
       </c>
       <c r="AG217" s="1" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="AH217" s="1" t="s">
         <v>377</v>
@@ -51776,10 +51705,10 @@
         <v>101</v>
       </c>
       <c r="CC217" s="1" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="CE217" s="1" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="218" spans="1:87" x14ac:dyDescent="0.25">
@@ -51796,7 +51725,7 @@
         <v>90</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>92</v>
@@ -51808,16 +51737,16 @@
         <v>94</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>110</v>
@@ -51886,7 +51815,7 @@
         <v>0</v>
       </c>
       <c r="BZ218" s="1" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="CA218" s="1" t="s">
         <v>124</v>
@@ -51895,10 +51824,10 @@
         <v>101</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="219" spans="1:87" x14ac:dyDescent="0.25">
@@ -51933,10 +51862,10 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="L219" s="1" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>110</v>
@@ -52014,10 +51943,10 @@
         <v>101</v>
       </c>
       <c r="CC219" s="1" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="CE219" s="1" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="220" spans="1:87" x14ac:dyDescent="0.25">
@@ -52034,7 +51963,7 @@
         <v>90</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>92</v>
@@ -52046,16 +51975,16 @@
         <v>94</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>110</v>
@@ -52124,7 +52053,7 @@
         <v>0</v>
       </c>
       <c r="BZ220" s="1" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="CA220" s="1" t="s">
         <v>124</v>
@@ -52133,10 +52062,10 @@
         <v>101</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="221" spans="1:87" x14ac:dyDescent="0.25">
@@ -52171,10 +52100,10 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>110</v>
@@ -52252,10 +52181,10 @@
         <v>101</v>
       </c>
       <c r="CC221" s="1" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="CE221" s="1" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="222" spans="1:87" x14ac:dyDescent="0.25">
@@ -52290,13 +52219,13 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2839</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>2840</v>
+      </c>
+      <c r="N222" s="1" t="s">
         <v>2841</v>
-      </c>
-      <c r="L222" s="1" t="s">
-        <v>2842</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2843</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>100</v>
@@ -52325,12 +52254,7 @@
       <c r="AA222" s="1">
         <v>0</v>
       </c>
-      <c r="AC222" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD222" s="1" t="s">
-        <v>2791</v>
-      </c>
+      <c r="AC222" s="3"/>
       <c r="AF222" s="1" t="s">
         <v>106</v>
       </c>
@@ -52383,7 +52307,7 @@
         <v>20</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="BE222" s="1" t="s">
         <v>113</v>
@@ -52395,7 +52319,7 @@
         <v>115</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="BI222" s="1" t="s">
         <v>381</v>
@@ -52410,13 +52334,13 @@
         <v>102</v>
       </c>
       <c r="BR222" s="1" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="BS222" s="3">
         <v>36306</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>122</v>
@@ -52434,16 +52358,16 @@
         <v>101</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="CD222" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="CE222" s="1" t="s">
         <v>2848</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CG222" s="1" t="s">
         <v>2849</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2850</v>
-      </c>
-      <c r="CG222" s="1" t="s">
-        <v>2851</v>
       </c>
       <c r="CH222" s="1" t="s">
         <v>388</v>
@@ -52484,13 +52408,13 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="N223" s="1" t="s">
         <v>2852</v>
-      </c>
-      <c r="L223" s="1" t="s">
-        <v>2853</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2854</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
@@ -52519,12 +52443,7 @@
       <c r="AA223" s="1">
         <v>0</v>
       </c>
-      <c r="AC223" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD223" s="1" t="s">
-        <v>2791</v>
-      </c>
+      <c r="AC223" s="3"/>
       <c r="AF223" s="1" t="s">
         <v>106</v>
       </c>
@@ -52580,7 +52499,7 @@
         <v>20</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="BE223" s="1" t="s">
         <v>113</v>
@@ -52592,7 +52511,7 @@
         <v>115</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="BI223" s="1" t="s">
         <v>1904</v>
@@ -52604,7 +52523,7 @@
         <v>105</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>122</v>
@@ -52622,16 +52541,16 @@
         <v>101</v>
       </c>
       <c r="CC223" s="1" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="CD223" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE223" s="1" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="CG223" s="1" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="CH223" s="1" t="s">
         <v>1908</v>
@@ -52672,13 +52591,13 @@
         <v>96</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L224" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="N224" s="1" t="s">
         <v>2861</v>
-      </c>
-      <c r="L224" s="1" t="s">
-        <v>2862</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2863</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>100</v>
@@ -52710,12 +52629,7 @@
       <c r="AB224" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AC224" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD224" s="1" t="s">
-        <v>2791</v>
-      </c>
+      <c r="AC224" s="3"/>
       <c r="AF224" s="1" t="s">
         <v>106</v>
       </c>
@@ -52768,7 +52682,7 @@
         <v>20</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="BE224" s="1" t="s">
         <v>113</v>
@@ -52780,7 +52694,7 @@
         <v>115</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="BI224" s="1" t="s">
         <v>1962</v>
@@ -52795,13 +52709,13 @@
         <v>102</v>
       </c>
       <c r="BR224" s="1" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="BS224" s="3">
         <v>38234</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>122</v>
@@ -52819,16 +52733,16 @@
         <v>101</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="CD224" s="1" t="s">
         <v>1042</v>
       </c>
       <c r="CE224" s="1" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="CG224" s="1" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="CH224" s="1" t="s">
         <v>1969</v>
@@ -52869,13 +52783,13 @@
         <v>96</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="N225" s="1" t="s">
         <v>2871</v>
-      </c>
-      <c r="L225" s="1" t="s">
-        <v>2872</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2873</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>100</v>
@@ -52904,12 +52818,7 @@
       <c r="AA225" s="1">
         <v>0</v>
       </c>
-      <c r="AC225" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD225" s="1" t="s">
-        <v>2791</v>
-      </c>
+      <c r="AC225" s="3"/>
       <c r="AF225" s="1" t="s">
         <v>106</v>
       </c>
@@ -52965,7 +52874,7 @@
         <v>20</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="BE225" s="1" t="s">
         <v>113</v>
@@ -52989,7 +52898,7 @@
         <v>105</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>122</v>
@@ -53007,13 +52916,13 @@
         <v>101</v>
       </c>
       <c r="CC225" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="CD225" s="1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="CE225" s="1" t="s">
         <v>2876</v>
-      </c>
-      <c r="CD225" s="1" t="s">
-        <v>2877</v>
-      </c>
-      <c r="CE225" s="1" t="s">
-        <v>2878</v>
       </c>
       <c r="CG225" s="1" t="s">
         <v>1056</v>
@@ -53057,13 +52966,13 @@
         <v>96</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2877</v>
+      </c>
+      <c r="L226" s="1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="N226" s="1" t="s">
         <v>2879</v>
-      </c>
-      <c r="L226" s="1" t="s">
-        <v>2880</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2881</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>100</v>
@@ -53092,12 +53001,7 @@
       <c r="AA226" s="1">
         <v>0</v>
       </c>
-      <c r="AC226" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD226" s="1" t="s">
-        <v>2791</v>
-      </c>
+      <c r="AC226" s="3"/>
       <c r="AF226" s="1" t="s">
         <v>106</v>
       </c>
@@ -53150,7 +53054,7 @@
         <v>20</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="BE226" s="1" t="s">
         <v>113</v>
@@ -53162,10 +53066,10 @@
         <v>115</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="BI226" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>118</v>
@@ -53177,13 +53081,13 @@
         <v>231</v>
       </c>
       <c r="BR226" s="1" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="BS226" s="3">
         <v>37069</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>122</v>
@@ -53204,16 +53108,16 @@
         <v>774</v>
       </c>
       <c r="CD226" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="CE226" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="CG226" s="1" t="s">
         <v>2887</v>
       </c>
-      <c r="CE226" s="1" t="s">
+      <c r="CH226" s="1" t="s">
         <v>2888</v>
-      </c>
-      <c r="CG226" s="1" t="s">
-        <v>2889</v>
-      </c>
-      <c r="CH226" s="1" t="s">
-        <v>2890</v>
       </c>
       <c r="CI226" s="1" t="s">
         <v>130</v>
@@ -53251,13 +53155,13 @@
         <v>96</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2889</v>
+      </c>
+      <c r="L227" s="1" t="s">
+        <v>2890</v>
+      </c>
+      <c r="N227" s="1" t="s">
         <v>2891</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2892</v>
-      </c>
-      <c r="N227" s="1" t="s">
-        <v>2893</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>100</v>
@@ -53286,12 +53190,7 @@
       <c r="AA227" s="1">
         <v>0</v>
       </c>
-      <c r="AC227" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD227" s="1" t="s">
-        <v>2791</v>
-      </c>
+      <c r="AC227" s="3"/>
       <c r="AF227" s="1" t="s">
         <v>106</v>
       </c>
@@ -53347,7 +53246,7 @@
         <v>20</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="BE227" s="1" t="s">
         <v>113</v>
@@ -53371,7 +53270,7 @@
         <v>105</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>122</v>
@@ -53389,13 +53288,13 @@
         <v>101</v>
       </c>
       <c r="CC227" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="CD227" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="CE227" s="1" t="s">
         <v>2896</v>
-      </c>
-      <c r="CD227" s="1" t="s">
-        <v>2897</v>
-      </c>
-      <c r="CE227" s="1" t="s">
-        <v>2898</v>
       </c>
       <c r="CG227" s="1" t="s">
         <v>1056</v>
@@ -53439,13 +53338,13 @@
         <v>96</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="L228" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="N228" s="1" t="s">
         <v>2899</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>2900</v>
-      </c>
-      <c r="N228" s="1" t="s">
-        <v>2901</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>100</v>
@@ -53474,12 +53373,7 @@
       <c r="AA228" s="1">
         <v>0</v>
       </c>
-      <c r="AC228" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD228" s="1" t="s">
-        <v>2902</v>
-      </c>
+      <c r="AC228" s="3"/>
       <c r="AF228" s="1" t="s">
         <v>106</v>
       </c>
@@ -53526,7 +53420,7 @@
         <v>101</v>
       </c>
       <c r="AZ228" s="1" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="BB228" s="1">
         <v>2</v>
@@ -53535,7 +53429,7 @@
         <v>20</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="BE228" s="1" t="s">
         <v>113</v>
@@ -53547,10 +53441,10 @@
         <v>115</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="BI228" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>118</v>
@@ -53562,13 +53456,13 @@
         <v>231</v>
       </c>
       <c r="BR228" s="1" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="BS228" s="3">
         <v>35125</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>122</v>
@@ -53586,19 +53480,19 @@
         <v>101</v>
       </c>
       <c r="CC228" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="CD228" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="CG228" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="CH228" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="CI228" s="1" t="s">
         <v>130</v>
@@ -53636,13 +53530,13 @@
         <v>391</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>100</v>
@@ -53726,7 +53620,7 @@
         <v>20</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="BG229" s="1" t="s">
         <v>115</v>
@@ -53735,7 +53629,7 @@
         <v>118</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>122</v>
@@ -53753,13 +53647,13 @@
         <v>92</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="CD229" s="1" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="CG229" s="1" t="s">
         <v>130</v>
@@ -53803,13 +53697,13 @@
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>100</v>
@@ -53893,7 +53787,7 @@
         <v>20</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="BG230" s="1" t="s">
         <v>115</v>
@@ -53902,7 +53796,7 @@
         <v>118</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>122</v>
@@ -53923,10 +53817,10 @@
         <v>563</v>
       </c>
       <c r="CD230" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="CG230" s="1" t="s">
         <v>130</v>
@@ -53970,16 +53864,16 @@
         <v>96</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="M231" s="1" t="s">
         <v>102</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>100</v>
@@ -54066,7 +53960,7 @@
         <v>20</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="BG231" s="1" t="s">
         <v>115</v>
@@ -54075,7 +53969,7 @@
         <v>118</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>122</v>
@@ -54093,13 +53987,13 @@
         <v>101</v>
       </c>
       <c r="CC231" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="CD231" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="CG231" s="1" t="s">
         <v>130</v>
@@ -54137,7 +54031,7 @@
         <v>94</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>96</v>
@@ -54146,10 +54040,10 @@
         <v>256</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="N232" s="1" t="s">
         <v>258</v>
@@ -54179,7 +54073,7 @@
         <v>42582</v>
       </c>
       <c r="AD232" s="1" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="AF232" s="1" t="s">
         <v>106</v>
@@ -54236,13 +54130,13 @@
         <v>0</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="BI232" s="1" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>118</v>
@@ -54287,10 +54181,10 @@
         <v>268</v>
       </c>
       <c r="CG232" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="CH232" s="1" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="CI232" s="1" t="s">
         <v>130</v>
@@ -54310,7 +54204,7 @@
         <v>188</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>92</v>
@@ -54322,22 +54216,22 @@
         <v>94</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="Q233" s="3">
         <v>17060</v>
@@ -54370,13 +54264,13 @@
         <v>42628</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>138</v>
@@ -54421,22 +54315,22 @@
         <v>101</v>
       </c>
       <c r="AZ233" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="BB233" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC233" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD233" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="BH233" s="1" t="s">
+        <v>2951</v>
+      </c>
+      <c r="BI233" s="1" t="s">
         <v>2952</v>
-      </c>
-      <c r="BB233" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC233" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD233" s="1" t="s">
-        <v>2953</v>
-      </c>
-      <c r="BH233" s="1" t="s">
-        <v>2954</v>
-      </c>
-      <c r="BI233" s="1" t="s">
-        <v>2955</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>118</v>
@@ -54445,7 +54339,7 @@
         <v>105</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>122</v>
@@ -54454,7 +54348,7 @@
         <v>0</v>
       </c>
       <c r="BZ233" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="CA233" s="1" t="s">
         <v>124</v>
@@ -54469,13 +54363,13 @@
         <v>126</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="CG233" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="CH233" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="CI233" s="1" t="s">
         <v>130</v>
@@ -54495,7 +54389,7 @@
         <v>188</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>101</v>
@@ -54507,22 +54401,22 @@
         <v>94</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="Q234" s="3">
         <v>26864</v>
@@ -54552,7 +54446,7 @@
         <v>42735</v>
       </c>
       <c r="AD234" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="AF234" s="1" t="s">
         <v>106</v>
@@ -54606,10 +54500,10 @@
         <v>0</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>118</v>
@@ -54621,13 +54515,13 @@
         <v>231</v>
       </c>
       <c r="BR234" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="BS234" s="3">
         <v>102</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>122</v>
@@ -54639,7 +54533,7 @@
         <v>110</v>
       </c>
       <c r="BZ234" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="CA234" s="1" t="s">
         <v>124</v>
@@ -54648,16 +54542,16 @@
         <v>101</v>
       </c>
       <c r="CC234" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="CD234" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="CE234" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="CG234" s="1" t="s">
         <v>2971</v>
-      </c>
-      <c r="CD234" s="1" t="s">
-        <v>2972</v>
-      </c>
-      <c r="CE234" s="1" t="s">
-        <v>2973</v>
-      </c>
-      <c r="CG234" s="1" t="s">
-        <v>2974</v>
       </c>
       <c r="CH234" s="1" t="s">
         <v>130</v>
@@ -54701,10 +54595,10 @@
         <v>1889</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="N235" s="1" t="s">
         <v>1891</v>
@@ -54737,7 +54631,7 @@
         <v>39800</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>242</v>
@@ -54791,10 +54685,10 @@
         <v>0</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>118</v>
@@ -54845,7 +54739,7 @@
         <v>1897</v>
       </c>
       <c r="CG235" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>130</v>
@@ -54868,7 +54762,7 @@
         <v>90</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>101</v>
@@ -54880,22 +54774,22 @@
         <v>94</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="Q236" s="3">
         <v>17470</v>
@@ -54925,7 +54819,7 @@
         <v>43100</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>106</v>
@@ -54982,10 +54876,10 @@
         <v>0</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>118</v>
@@ -54994,7 +54888,7 @@
         <v>105</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>122</v>
@@ -55018,16 +54912,16 @@
         <v>101</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="CD236" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="CG236" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="CH236" s="1" t="s">
         <v>130</v>
@@ -55068,16 +54962,16 @@
         <v>96</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="Q237" s="3">
         <v>23356</v>
@@ -55104,7 +54998,7 @@
         <v>43105</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>106</v>
@@ -55158,10 +55052,10 @@
         <v>0</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>118</v>
@@ -55173,13 +55067,13 @@
         <v>102</v>
       </c>
       <c r="BR237" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="BS237" s="3">
         <v>34412</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>122</v>
@@ -55188,7 +55082,7 @@
         <v>0</v>
       </c>
       <c r="BZ237" s="1" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="CA237" s="1" t="s">
         <v>124</v>
@@ -55197,16 +55091,16 @@
         <v>101</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>2355</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="CG237" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="CH237" s="1" t="s">
         <v>130</v>
@@ -55247,16 +55141,16 @@
         <v>96</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="Q238" s="3">
         <v>17726</v>
@@ -55289,7 +55183,7 @@
         <v>43312</v>
       </c>
       <c r="AD238" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="AF238" s="1" t="s">
         <v>242</v>
@@ -55340,7 +55234,7 @@
         <v>101</v>
       </c>
       <c r="AZ238" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="BB238" s="1">
         <v>0</v>
@@ -55349,10 +55243,10 @@
         <v>0</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>118</v>
@@ -55361,7 +55255,7 @@
         <v>105</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>122</v>
@@ -55370,7 +55264,7 @@
         <v>0</v>
       </c>
       <c r="BZ238" s="1" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="CA238" s="1" t="s">
         <v>124</v>
@@ -55379,16 +55273,16 @@
         <v>101</v>
       </c>
       <c r="CC238" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="CD238" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="CE238" s="1" t="s">
         <v>923</v>
       </c>
       <c r="CG238" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="CH238" s="1" t="s">
         <v>130</v>
@@ -55429,16 +55323,16 @@
         <v>96</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="Q239" s="3">
         <v>17041</v>
@@ -55465,7 +55359,7 @@
         <v>42735</v>
       </c>
       <c r="AD239" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="AF239" s="1" t="s">
         <v>106</v>
@@ -55522,10 +55416,10 @@
         <v>0</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>118</v>
@@ -55534,7 +55428,7 @@
         <v>105</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>122</v>
@@ -55546,7 +55440,7 @@
         <v>110</v>
       </c>
       <c r="BZ239" s="1" t="s">
-        <v>2817</v>
+        <v>2815</v>
       </c>
       <c r="CA239" s="1" t="s">
         <v>124</v>
@@ -55555,16 +55449,16 @@
         <v>101</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>3014</v>
+      </c>
+      <c r="CD239" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="CE239" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="CG239" s="1" t="s">
         <v>3017</v>
-      </c>
-      <c r="CD239" s="1" t="s">
-        <v>3018</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>3019</v>
-      </c>
-      <c r="CG239" s="1" t="s">
-        <v>3020</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>130</v>
@@ -55587,7 +55481,7 @@
         <v>188</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>101</v>
@@ -55599,22 +55493,22 @@
         <v>94</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="Q240" s="3">
         <v>30147</v>
@@ -55637,17 +55531,12 @@
       <c r="AA240" s="1">
         <v>0</v>
       </c>
-      <c r="AC240" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD240" s="1" t="s">
-        <v>2791</v>
-      </c>
+      <c r="AC240" s="3"/>
       <c r="AF240" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG240" s="1" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="AH240" s="1" t="s">
         <v>377</v>
@@ -55695,10 +55584,10 @@
         <v>0</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>118</v>
@@ -55710,13 +55599,13 @@
         <v>102</v>
       </c>
       <c r="BR240" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="BS240" s="3">
         <v>37124</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>122</v>
@@ -55725,7 +55614,7 @@
         <v>0</v>
       </c>
       <c r="BZ240" s="1" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="CA240" s="1" t="s">
         <v>124</v>
@@ -55734,16 +55623,16 @@
         <v>101</v>
       </c>
       <c r="CC240" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="CD240" s="1" t="s">
         <v>1173</v>
       </c>
       <c r="CE240" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="CG240" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="CH240" s="1" t="s">
         <v>130</v>
@@ -55766,7 +55655,7 @@
         <v>188</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>101</v>
@@ -55778,22 +55667,22 @@
         <v>94</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="M241" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="Q241" s="3">
         <v>17821</v>
@@ -55829,13 +55718,13 @@
         <v>43388</v>
       </c>
       <c r="AD241" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="AF241" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG241" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="AH241" s="1" t="s">
         <v>1276</v>
@@ -55880,7 +55769,7 @@
         <v>101</v>
       </c>
       <c r="AZ241" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="BB241" s="1">
         <v>0</v>
@@ -55889,10 +55778,10 @@
         <v>0</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>118</v>
@@ -55901,7 +55790,7 @@
         <v>105</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>122</v>
@@ -55919,16 +55808,16 @@
         <v>101</v>
       </c>
       <c r="CC241" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="CD241" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="CE241" s="1" t="s">
         <v>511</v>
       </c>
       <c r="CG241" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="CH241" s="1" t="s">
         <v>130</v>
@@ -55942,10 +55831,10 @@
         <v>87</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1274</v>
@@ -55960,7 +55849,7 @@
         <v>93</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>1274</v>
@@ -55969,13 +55858,13 @@
         <v>152</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>100</v>
@@ -56029,7 +55918,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="AO242" s="1">
         <v>0</v>
@@ -56062,7 +55951,7 @@
         <v>20</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="BE242" s="1" t="s">
         <v>113</v>
@@ -56074,13 +55963,13 @@
         <v>115</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>122</v>
@@ -56098,16 +55987,16 @@
         <v>101</v>
       </c>
       <c r="CC242" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="CD242" s="1" t="s">
         <v>309</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="CG242" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>130</v>
@@ -56121,10 +56010,10 @@
         <v>87</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1274</v>
@@ -56139,7 +56028,7 @@
         <v>93</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>1274</v>
@@ -56148,13 +56037,13 @@
         <v>152</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>100</v>
@@ -56205,7 +56094,7 @@
         <v>0</v>
       </c>
       <c r="AN243" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="AO243" s="1">
         <v>0</v>
@@ -56241,7 +56130,7 @@
         <v>20</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="BE243" s="1" t="s">
         <v>113</v>
@@ -56253,13 +56142,13 @@
         <v>115</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>122</v>
@@ -56286,10 +56175,10 @@
         <v>1100</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="CG243" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="CH243" s="1" t="s">
         <v>130</v>
@@ -56303,10 +56192,10 @@
         <v>87</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1274</v>
@@ -56321,7 +56210,7 @@
         <v>93</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>1274</v>
@@ -56330,13 +56219,13 @@
         <v>152</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>100</v>
@@ -56387,7 +56276,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="AO244" s="1">
         <v>0</v>
@@ -56423,7 +56312,7 @@
         <v>20</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="BE244" s="1" t="s">
         <v>113</v>
@@ -56435,13 +56324,13 @@
         <v>115</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>122</v>
@@ -56462,16 +56351,16 @@
         <v>101</v>
       </c>
       <c r="CC244" s="1" t="s">
+        <v>3069</v>
+      </c>
+      <c r="CD244" s="1" t="s">
+        <v>3070</v>
+      </c>
+      <c r="CE244" s="1" t="s">
+        <v>3071</v>
+      </c>
+      <c r="CG244" s="1" t="s">
         <v>3072</v>
-      </c>
-      <c r="CD244" s="1" t="s">
-        <v>3073</v>
-      </c>
-      <c r="CE244" s="1" t="s">
-        <v>3074</v>
-      </c>
-      <c r="CG244" s="1" t="s">
-        <v>3075</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>130</v>
@@ -56485,10 +56374,10 @@
         <v>87</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1274</v>
@@ -56503,7 +56392,7 @@
         <v>93</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>1274</v>
@@ -56512,13 +56401,13 @@
         <v>152</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
@@ -56605,7 +56494,7 @@
         <v>20</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="BE245" s="1" t="s">
         <v>113</v>
@@ -56617,13 +56506,13 @@
         <v>115</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>122</v>
@@ -56644,7 +56533,7 @@
         <v>101</v>
       </c>
       <c r="CC245" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="CD245" s="1" t="s">
         <v>605</v>
@@ -56653,7 +56542,7 @@
         <v>511</v>
       </c>
       <c r="CG245" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>130</v>
@@ -56667,10 +56556,10 @@
         <v>87</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1274</v>
@@ -56685,7 +56574,7 @@
         <v>93</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>1274</v>
@@ -56694,13 +56583,13 @@
         <v>152</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
@@ -56754,7 +56643,7 @@
         <v>0</v>
       </c>
       <c r="AN246" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="AO246" s="1">
         <v>0</v>
@@ -56790,7 +56679,7 @@
         <v>20</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="BE246" s="1" t="s">
         <v>113</v>
@@ -56802,13 +56691,13 @@
         <v>115</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>122</v>
@@ -56832,13 +56721,13 @@
         <v>495</v>
       </c>
       <c r="CD246" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="CG246" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>130</v>
@@ -56852,10 +56741,10 @@
         <v>87</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1274</v>
@@ -56870,7 +56759,7 @@
         <v>93</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>1274</v>
@@ -56879,13 +56768,13 @@
         <v>152</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
@@ -56972,7 +56861,7 @@
         <v>20</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="BE247" s="1" t="s">
         <v>113</v>
@@ -56984,13 +56873,13 @@
         <v>115</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>122</v>
@@ -57011,16 +56900,16 @@
         <v>101</v>
       </c>
       <c r="CC247" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="CD247" s="1" t="s">
         <v>619</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="CG247" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>130</v>
@@ -57034,10 +56923,10 @@
         <v>87</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1274</v>
@@ -57052,7 +56941,7 @@
         <v>93</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>1274</v>
@@ -57061,13 +56950,13 @@
         <v>152</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
@@ -57103,7 +56992,7 @@
         <v>106</v>
       </c>
       <c r="AG248" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="AH248" s="1" t="s">
         <v>1276</v>
@@ -57121,7 +57010,7 @@
         <v>0</v>
       </c>
       <c r="AN248" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="AO248" s="1">
         <v>0</v>
@@ -57157,7 +57046,7 @@
         <v>20</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="BE248" s="1" t="s">
         <v>113</v>
@@ -57169,13 +57058,13 @@
         <v>115</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>122</v>
@@ -57196,16 +57085,16 @@
         <v>101</v>
       </c>
       <c r="CC248" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="CD248" s="1" t="s">
         <v>1030</v>
       </c>
       <c r="CE248" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="CG248" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>130</v>
@@ -57219,10 +57108,10 @@
         <v>87</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1274</v>
@@ -57237,7 +57126,7 @@
         <v>93</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>1274</v>
@@ -57246,13 +57135,13 @@
         <v>152</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
@@ -57306,7 +57195,7 @@
         <v>0</v>
       </c>
       <c r="AN249" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="AO249" s="1">
         <v>0</v>
@@ -57342,7 +57231,7 @@
         <v>20</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="BE249" s="1" t="s">
         <v>113</v>
@@ -57354,13 +57243,13 @@
         <v>115</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>122</v>
@@ -57384,13 +57273,13 @@
         <v>1016</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="CG249" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>130</v>
@@ -57404,10 +57293,10 @@
         <v>87</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1274</v>
@@ -57422,7 +57311,7 @@
         <v>93</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>1274</v>
@@ -57431,13 +57320,13 @@
         <v>152</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
@@ -57491,7 +57380,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="AO250" s="1">
         <v>0</v>
@@ -57527,7 +57416,7 @@
         <v>20</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="BE250" s="1" t="s">
         <v>113</v>
@@ -57539,13 +57428,13 @@
         <v>115</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>122</v>
@@ -57572,10 +57461,10 @@
         <v>2187</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="CG250" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>130</v>
@@ -57589,10 +57478,10 @@
         <v>87</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1274</v>
@@ -57607,7 +57496,7 @@
         <v>93</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1274</v>
@@ -57616,13 +57505,13 @@
         <v>152</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="L251" s="1" t="s">
         <v>2297</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
@@ -57658,7 +57547,7 @@
         <v>106</v>
       </c>
       <c r="AG251" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="AH251" s="1" t="s">
         <v>1276</v>
@@ -57673,7 +57562,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="AO251" s="1">
         <v>0</v>
@@ -57706,19 +57595,19 @@
         <v>20</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="BG251" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>122</v>
@@ -57736,16 +57625,16 @@
         <v>101</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>3134</v>
+      </c>
+      <c r="CD251" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="CE251" s="1" t="s">
+        <v>3136</v>
+      </c>
+      <c r="CG251" s="1" t="s">
         <v>3137</v>
-      </c>
-      <c r="CD251" s="1" t="s">
-        <v>3138</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>3139</v>
-      </c>
-      <c r="CG251" s="1" t="s">
-        <v>3140</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>130</v>
@@ -57759,10 +57648,10 @@
         <v>87</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1274</v>
@@ -57777,7 +57666,7 @@
         <v>93</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>1274</v>
@@ -57786,13 +57675,13 @@
         <v>152</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="L252" s="1" t="s">
         <v>2307</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>100</v>
@@ -57876,19 +57765,19 @@
         <v>20</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="BG252" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>122</v>
@@ -57909,16 +57798,16 @@
         <v>2235</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="CD252" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="CE252" s="1" t="s">
+        <v>3145</v>
+      </c>
+      <c r="CG252" s="1" t="s">
         <v>3146</v>
-      </c>
-      <c r="CD252" s="1" t="s">
-        <v>3147</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>3148</v>
-      </c>
-      <c r="CG252" s="1" t="s">
-        <v>3149</v>
       </c>
       <c r="CH252" s="1" t="s">
         <v>130</v>
@@ -57932,10 +57821,10 @@
         <v>87</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1274</v>
@@ -57950,7 +57839,7 @@
         <v>93</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>1274</v>
@@ -57959,13 +57848,13 @@
         <v>152</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
@@ -58049,19 +57938,19 @@
         <v>20</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>122</v>
@@ -58082,13 +57971,13 @@
         <v>1217</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="CG253" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="CH253" s="1" t="s">
         <v>130</v>
@@ -58102,10 +57991,10 @@
         <v>87</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1274</v>
@@ -58120,7 +58009,7 @@
         <v>93</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>1274</v>
@@ -58129,13 +58018,13 @@
         <v>152</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
@@ -58186,7 +58075,7 @@
         <v>0</v>
       </c>
       <c r="AN254" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="AO254" s="1">
         <v>0</v>
@@ -58222,7 +58111,7 @@
         <v>20</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="BE254" s="1" t="s">
         <v>113</v>
@@ -58234,13 +58123,13 @@
         <v>115</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>122</v>
@@ -58261,16 +58150,16 @@
         <v>101</v>
       </c>
       <c r="CC254" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="CD254" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="CG254" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>130</v>
@@ -58284,10 +58173,10 @@
         <v>87</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1274</v>
@@ -58302,7 +58191,7 @@
         <v>93</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>1274</v>
@@ -58311,13 +58200,13 @@
         <v>152</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>100</v>
@@ -58371,7 +58260,7 @@
         <v>0</v>
       </c>
       <c r="AN255" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="AO255" s="1">
         <v>0</v>
@@ -58407,7 +58296,7 @@
         <v>20</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="BE255" s="1" t="s">
         <v>113</v>
@@ -58419,13 +58308,13 @@
         <v>115</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>122</v>
@@ -58446,16 +58335,16 @@
         <v>101</v>
       </c>
       <c r="CC255" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="CD255" s="1" t="s">
+        <v>3172</v>
+      </c>
+      <c r="CE255" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="CG255" s="1" t="s">
         <v>3174</v>
-      </c>
-      <c r="CD255" s="1" t="s">
-        <v>3175</v>
-      </c>
-      <c r="CE255" s="1" t="s">
-        <v>3176</v>
-      </c>
-      <c r="CG255" s="1" t="s">
-        <v>3177</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>130</v>
@@ -58469,10 +58358,10 @@
         <v>87</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1274</v>
@@ -58487,7 +58376,7 @@
         <v>93</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>1274</v>
@@ -58496,13 +58385,13 @@
         <v>152</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>100</v>
@@ -58556,7 +58445,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="AO256" s="1">
         <v>0</v>
@@ -58592,7 +58481,7 @@
         <v>20</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="BE256" s="1" t="s">
         <v>113</v>
@@ -58604,13 +58493,13 @@
         <v>115</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>122</v>
@@ -58631,16 +58520,16 @@
         <v>101</v>
       </c>
       <c r="CC256" s="1" t="s">
+        <v>3181</v>
+      </c>
+      <c r="CD256" s="1" t="s">
+        <v>3182</v>
+      </c>
+      <c r="CE256" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="CG256" s="1" t="s">
         <v>3184</v>
-      </c>
-      <c r="CD256" s="1" t="s">
-        <v>3185</v>
-      </c>
-      <c r="CE256" s="1" t="s">
-        <v>3186</v>
-      </c>
-      <c r="CG256" s="1" t="s">
-        <v>3187</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>130</v>
@@ -58654,10 +58543,10 @@
         <v>87</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1274</v>
@@ -58672,7 +58561,7 @@
         <v>93</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>1274</v>
@@ -58681,13 +58570,13 @@
         <v>152</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>100</v>
@@ -58774,7 +58663,7 @@
         <v>20</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="BE257" s="1" t="s">
         <v>113</v>
@@ -58786,13 +58675,13 @@
         <v>115</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>122</v>
@@ -58813,16 +58702,16 @@
         <v>101</v>
       </c>
       <c r="CC257" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="CD257" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="CE257" s="1" t="s">
         <v>219</v>
       </c>
       <c r="CG257" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>130</v>
@@ -58836,10 +58725,10 @@
         <v>87</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1274</v>
@@ -58854,7 +58743,7 @@
         <v>93</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>1274</v>
@@ -58863,13 +58752,13 @@
         <v>152</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>100</v>
@@ -58923,7 +58812,7 @@
         <v>0</v>
       </c>
       <c r="AN258" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="AO258" s="1">
         <v>0</v>
@@ -58959,7 +58848,7 @@
         <v>20</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="BE258" s="1" t="s">
         <v>113</v>
@@ -58971,19 +58860,19 @@
         <v>115</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>122</v>
       </c>
       <c r="BW258" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="BX258" s="1">
         <v>0</v>
@@ -59001,16 +58890,16 @@
         <v>101</v>
       </c>
       <c r="CC258" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="CD258" s="1" t="s">
         <v>1284</v>
       </c>
       <c r="CE258" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="CG258" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>130</v>
@@ -59024,10 +58913,10 @@
         <v>87</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>1274</v>
@@ -59042,7 +58931,7 @@
         <v>93</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>1274</v>
@@ -59051,13 +58940,13 @@
         <v>152</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>100</v>
@@ -59108,7 +58997,7 @@
         <v>0</v>
       </c>
       <c r="AN259" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="AO259" s="1">
         <v>0</v>
@@ -59144,7 +59033,7 @@
         <v>20</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="BE259" s="1" t="s">
         <v>113</v>
@@ -59156,13 +59045,13 @@
         <v>115</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>122</v>
@@ -59183,16 +59072,16 @@
         <v>101</v>
       </c>
       <c r="CC259" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="CD259" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="CG259" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>130</v>
@@ -59206,10 +59095,10 @@
         <v>87</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>1274</v>
@@ -59224,7 +59113,7 @@
         <v>93</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="I260" s="1" t="s">
         <v>1274</v>
@@ -59233,13 +59122,13 @@
         <v>152</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>100</v>
@@ -59266,7 +59155,7 @@
         <v>0</v>
       </c>
       <c r="AG260" s="1" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="AH260" s="1" t="s">
         <v>377</v>
@@ -59281,7 +59170,7 @@
         <v>0</v>
       </c>
       <c r="AN260" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="AO260" s="1">
         <v>0</v>
@@ -59311,7 +59200,7 @@
         <v>20</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="BE260" s="1" t="s">
         <v>113</v>
@@ -59323,13 +59212,13 @@
         <v>115</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>122</v>
@@ -59347,16 +59236,16 @@
         <v>101</v>
       </c>
       <c r="CC260" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="CD260" s="1" t="s">
         <v>309</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="CG260" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="CH260" s="1" t="s">
         <v>130</v>
@@ -59370,10 +59259,10 @@
         <v>87</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>1274</v>
@@ -59388,7 +59277,7 @@
         <v>93</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>1274</v>
@@ -59397,13 +59286,13 @@
         <v>152</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>100</v>
@@ -59487,7 +59376,7 @@
         <v>20</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="BE261" s="1" t="s">
         <v>113</v>
@@ -59499,13 +59388,13 @@
         <v>115</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>122</v>
@@ -59523,16 +59412,16 @@
         <v>101</v>
       </c>
       <c r="CC261" s="1" t="s">
+        <v>3227</v>
+      </c>
+      <c r="CD261" s="1" t="s">
+        <v>3228</v>
+      </c>
+      <c r="CE261" s="1" t="s">
+        <v>3229</v>
+      </c>
+      <c r="CG261" s="1" t="s">
         <v>3230</v>
-      </c>
-      <c r="CD261" s="1" t="s">
-        <v>3231</v>
-      </c>
-      <c r="CE261" s="1" t="s">
-        <v>3232</v>
-      </c>
-      <c r="CG261" s="1" t="s">
-        <v>3233</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>130</v>
@@ -59546,10 +59435,10 @@
         <v>87</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>1274</v>
@@ -59564,7 +59453,7 @@
         <v>93</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="I262" s="1" t="s">
         <v>1274</v>
@@ -59573,13 +59462,13 @@
         <v>152</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>100</v>
@@ -59666,7 +59555,7 @@
         <v>20</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="BE262" s="1" t="s">
         <v>113</v>
@@ -59678,13 +59567,13 @@
         <v>115</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>122</v>
@@ -59702,16 +59591,16 @@
         <v>101</v>
       </c>
       <c r="CC262" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="CD262" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="CE262" s="1" t="s">
+        <v>3239</v>
+      </c>
+      <c r="CG262" s="1" t="s">
         <v>3240</v>
-      </c>
-      <c r="CD262" s="1" t="s">
-        <v>3241</v>
-      </c>
-      <c r="CE262" s="1" t="s">
-        <v>3242</v>
-      </c>
-      <c r="CG262" s="1" t="s">
-        <v>3243</v>
       </c>
       <c r="CH262" s="1" t="s">
         <v>130</v>
@@ -59725,10 +59614,10 @@
         <v>87</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1274</v>
@@ -59743,7 +59632,7 @@
         <v>93</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>1274</v>
@@ -59752,13 +59641,13 @@
         <v>152</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>100</v>
@@ -59767,7 +59656,7 @@
         <v>101</v>
       </c>
       <c r="Q263" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="R263" s="1" t="s">
         <v>136</v>
@@ -59809,7 +59698,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="AO263" s="1">
         <v>0</v>
@@ -59842,7 +59731,7 @@
         <v>20</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="BE263" s="1" t="s">
         <v>113</v>
@@ -59854,13 +59743,13 @@
         <v>115</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>122</v>
@@ -59878,16 +59767,16 @@
         <v>101</v>
       </c>
       <c r="CC263" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="CD263" s="1" t="s">
+        <v>3249</v>
+      </c>
+      <c r="CE263" s="1" t="s">
+        <v>3250</v>
+      </c>
+      <c r="CG263" s="1" t="s">
         <v>3251</v>
-      </c>
-      <c r="CD263" s="1" t="s">
-        <v>3252</v>
-      </c>
-      <c r="CE263" s="1" t="s">
-        <v>3253</v>
-      </c>
-      <c r="CG263" s="1" t="s">
-        <v>3254</v>
       </c>
       <c r="CH263" s="1" t="s">
         <v>130</v>
@@ -59897,6 +59786,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI263" xr:uid="{912DC2CD-B833-429B-8494-9202E657CD47}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>